--- a/Base3.xlsx
+++ b/Base3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\html\organograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desenvolvimento\html\organograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A2A79-3C36-40CD-A557-B3F9EAA15A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB5596F-99CF-4BF3-A0CE-5C8F86426B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -2243,9 +2243,6 @@
     <t>Cargo Lider</t>
   </si>
   <si>
-    <t>Nivel Lederanca</t>
-  </si>
-  <si>
     <t>N1</t>
   </si>
   <si>
@@ -2267,10 +2264,13 @@
     <t>N5</t>
   </si>
   <si>
-    <t>Líder</t>
-  </si>
-  <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Lider</t>
   </si>
 </sst>
 </file>
@@ -2749,18 +2749,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB28E63C-3DE6-469E-A105-019A45B0AC2D}" name="Tabela1" displayName="Tabela1" ref="A1:O373" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Ruim" dataCellStyle="Ruim">
-  <autoFilter ref="A1:O373" xr:uid="{DB28E63C-3DE6-469E-A105-019A45B0AC2D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="N1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{FE8FEBA6-B8E7-484B-80FC-4EEE91454EA2}" name="Fazenda" dataDxfId="12" dataCellStyle="Ruim"/>
-    <tableColumn id="2" xr3:uid="{A839A69B-2876-47A5-9D50-E55EC607D98C}" name="Líder" dataDxfId="11" dataCellStyle="Ruim"/>
+    <tableColumn id="2" xr3:uid="{A839A69B-2876-47A5-9D50-E55EC607D98C}" name="Lider" dataDxfId="11" dataCellStyle="Ruim"/>
     <tableColumn id="3" xr3:uid="{2D0E7970-6DE8-4F56-8E32-D7D9A782AB38}" name="Cargo Lider"/>
-    <tableColumn id="4" xr3:uid="{35FCA78A-D84F-4CCC-B1F2-1FF3EB8A1F17}" name="Nivel Lederanca"/>
+    <tableColumn id="4" xr3:uid="{35FCA78A-D84F-4CCC-B1F2-1FF3EB8A1F17}" name="Nivel"/>
     <tableColumn id="5" xr3:uid="{8F5A9AC3-13BB-4345-992C-2B393F35CD16}" name="Liderado" dataDxfId="10" dataCellStyle="Ruim"/>
     <tableColumn id="6" xr3:uid="{DECE8E7A-897F-45BF-975B-D7E2F24F6436}" name="DescricaoCargo" dataDxfId="9" dataCellStyle="Ruim"/>
     <tableColumn id="7" xr3:uid="{755CE9C8-E2B2-4630-93C4-33E5669E6DF5}" name="DescricaoTipoAdmissao" dataDxfId="8" dataCellStyle="Ruim"/>
@@ -3097,7 +3090,7 @@
   <dimension ref="A1:O373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3124,13 +3117,13 @@
         <v>675</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>734</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>676</v>
@@ -3151,22 +3144,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>624</v>
       </c>
@@ -3177,7 +3170,7 @@
         <v>678</v>
       </c>
       <c r="D2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -3211,7 +3204,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>624</v>
       </c>
@@ -3222,7 +3215,7 @@
         <v>680</v>
       </c>
       <c r="D3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -3256,7 +3249,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>627</v>
       </c>
@@ -3267,7 +3260,7 @@
         <v>682</v>
       </c>
       <c r="D4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
@@ -3301,7 +3294,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>627</v>
       </c>
@@ -3312,7 +3305,7 @@
         <v>684</v>
       </c>
       <c r="D5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -3346,7 +3339,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>627</v>
       </c>
@@ -3357,7 +3350,7 @@
         <v>686</v>
       </c>
       <c r="D6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -3402,7 +3395,7 @@
         <v>688</v>
       </c>
       <c r="D7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>38</v>
@@ -3436,7 +3429,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>627</v>
       </c>
@@ -3447,7 +3440,7 @@
         <v>689</v>
       </c>
       <c r="D8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>42</v>
@@ -3481,7 +3474,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>624</v>
       </c>
@@ -3492,7 +3485,7 @@
         <v>691</v>
       </c>
       <c r="D9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
@@ -3526,7 +3519,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>627</v>
       </c>
@@ -3537,7 +3530,7 @@
         <v>682</v>
       </c>
       <c r="D10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>50</v>
@@ -3571,7 +3564,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>627</v>
       </c>
@@ -3582,7 +3575,7 @@
         <v>684</v>
       </c>
       <c r="D11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>54</v>
@@ -3616,7 +3609,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>627</v>
       </c>
@@ -3627,7 +3620,7 @@
         <v>684</v>
       </c>
       <c r="D12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>55</v>
@@ -3661,7 +3654,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>627</v>
       </c>
@@ -3672,7 +3665,7 @@
         <v>684</v>
       </c>
       <c r="D13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>57</v>
@@ -3706,7 +3699,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>627</v>
       </c>
@@ -3717,7 +3710,7 @@
         <v>686</v>
       </c>
       <c r="D14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>59</v>
@@ -3751,7 +3744,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>627</v>
       </c>
@@ -3762,7 +3755,7 @@
         <v>684</v>
       </c>
       <c r="D15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>60</v>
@@ -3796,7 +3789,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>624</v>
       </c>
@@ -3807,7 +3800,7 @@
         <v>680</v>
       </c>
       <c r="D16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>49</v>
@@ -3841,7 +3834,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>627</v>
       </c>
@@ -3852,7 +3845,7 @@
         <v>689</v>
       </c>
       <c r="D17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
@@ -3897,7 +3890,7 @@
         <v>693</v>
       </c>
       <c r="D18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>67</v>
@@ -3931,7 +3924,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>624</v>
       </c>
@@ -3942,7 +3935,7 @@
         <v>695</v>
       </c>
       <c r="D19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>72</v>
@@ -3976,7 +3969,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>627</v>
       </c>
@@ -3987,7 +3980,7 @@
         <v>684</v>
       </c>
       <c r="D20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>74</v>
@@ -4021,7 +4014,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>627</v>
       </c>
@@ -4032,7 +4025,7 @@
         <v>684</v>
       </c>
       <c r="D21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>75</v>
@@ -4066,7 +4059,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>627</v>
       </c>
@@ -4077,7 +4070,7 @@
         <v>686</v>
       </c>
       <c r="D22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>76</v>
@@ -4111,7 +4104,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>627</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v>684</v>
       </c>
       <c r="D23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>79</v>
@@ -4167,7 +4160,7 @@
         <v>693</v>
       </c>
       <c r="D24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>81</v>
@@ -4212,7 +4205,7 @@
         <v>693</v>
       </c>
       <c r="D25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>27</v>
@@ -4246,7 +4239,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>638</v>
       </c>
@@ -4257,7 +4250,7 @@
         <v>696</v>
       </c>
       <c r="D26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>88</v>
@@ -4291,7 +4284,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>627</v>
       </c>
@@ -4302,7 +4295,7 @@
         <v>689</v>
       </c>
       <c r="D27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>91</v>
@@ -4336,7 +4329,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>627</v>
       </c>
@@ -4347,7 +4340,7 @@
         <v>678</v>
       </c>
       <c r="D28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>95</v>
@@ -4381,7 +4374,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>624</v>
       </c>
@@ -4392,7 +4385,7 @@
         <v>678</v>
       </c>
       <c r="D29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>97</v>
@@ -4426,7 +4419,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>624</v>
       </c>
@@ -4437,7 +4430,7 @@
         <v>678</v>
       </c>
       <c r="D30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>99</v>
@@ -4471,7 +4464,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>624</v>
       </c>
@@ -4482,7 +4475,7 @@
         <v>682</v>
       </c>
       <c r="D31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>103</v>
@@ -4516,7 +4509,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>627</v>
       </c>
@@ -4527,7 +4520,7 @@
         <v>682</v>
       </c>
       <c r="D32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>107</v>
@@ -4561,7 +4554,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>624</v>
       </c>
@@ -4572,7 +4565,7 @@
         <v>680</v>
       </c>
       <c r="D33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>109</v>
@@ -4606,7 +4599,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>624</v>
       </c>
@@ -4617,7 +4610,7 @@
         <v>682</v>
       </c>
       <c r="D34" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>111</v>
@@ -4651,7 +4644,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>641</v>
       </c>
@@ -4662,7 +4655,7 @@
         <v>698</v>
       </c>
       <c r="D35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -4696,7 +4689,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>624</v>
       </c>
@@ -4707,7 +4700,7 @@
         <v>695</v>
       </c>
       <c r="D36" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>117</v>
@@ -4741,7 +4734,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>627</v>
       </c>
@@ -4752,7 +4745,7 @@
         <v>689</v>
       </c>
       <c r="D37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>37</v>
@@ -4786,7 +4779,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>624</v>
       </c>
@@ -4797,7 +4790,7 @@
         <v>696</v>
       </c>
       <c r="D38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>124</v>
@@ -4831,7 +4824,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>641</v>
       </c>
@@ -4842,7 +4835,7 @@
         <v>698</v>
       </c>
       <c r="D39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>125</v>
@@ -4876,7 +4869,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>627</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>684</v>
       </c>
       <c r="D40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>129</v>
@@ -4932,7 +4925,7 @@
         <v>693</v>
       </c>
       <c r="D41" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>131</v>
@@ -4968,7 +4961,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>641</v>
       </c>
@@ -4979,7 +4972,7 @@
         <v>698</v>
       </c>
       <c r="D42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>135</v>
@@ -5013,7 +5006,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>627</v>
       </c>
@@ -5024,7 +5017,7 @@
         <v>689</v>
       </c>
       <c r="D43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>136</v>
@@ -5058,7 +5051,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>627</v>
       </c>
@@ -5069,7 +5062,7 @@
         <v>684</v>
       </c>
       <c r="D44" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>140</v>
@@ -5114,7 +5107,7 @@
         <v>693</v>
       </c>
       <c r="D45" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>141</v>
@@ -5148,7 +5141,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>627</v>
       </c>
@@ -5159,7 +5152,7 @@
         <v>684</v>
       </c>
       <c r="D46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>143</v>
@@ -5193,7 +5186,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>624</v>
       </c>
@@ -5204,7 +5197,7 @@
         <v>699</v>
       </c>
       <c r="D47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>144</v>
@@ -5238,7 +5231,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>624</v>
       </c>
@@ -5249,7 +5242,7 @@
         <v>701</v>
       </c>
       <c r="D48" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>147</v>
@@ -5283,7 +5276,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>627</v>
       </c>
@@ -5294,7 +5287,7 @@
         <v>689</v>
       </c>
       <c r="D49" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>152</v>
@@ -5328,7 +5321,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>624</v>
       </c>
@@ -5339,7 +5332,7 @@
         <v>678</v>
       </c>
       <c r="D50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>156</v>
@@ -5373,7 +5366,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>627</v>
       </c>
@@ -5384,7 +5377,7 @@
         <v>684</v>
       </c>
       <c r="D51" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>157</v>
@@ -5418,7 +5411,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>624</v>
       </c>
@@ -5429,7 +5422,7 @@
         <v>699</v>
       </c>
       <c r="D52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>158</v>
@@ -5463,7 +5456,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>641</v>
       </c>
@@ -5474,7 +5467,7 @@
         <v>698</v>
       </c>
       <c r="D53" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>162</v>
@@ -5508,7 +5501,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>627</v>
       </c>
@@ -5519,7 +5512,7 @@
         <v>686</v>
       </c>
       <c r="D54" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>163</v>
@@ -5553,7 +5546,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>624</v>
       </c>
@@ -5564,7 +5557,7 @@
         <v>691</v>
       </c>
       <c r="D55" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>164</v>
@@ -5598,7 +5591,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>627</v>
       </c>
@@ -5609,7 +5602,7 @@
         <v>684</v>
       </c>
       <c r="D56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>165</v>
@@ -5643,7 +5636,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>624</v>
       </c>
@@ -5654,7 +5647,7 @@
         <v>699</v>
       </c>
       <c r="D57" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>166</v>
@@ -5688,7 +5681,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>627</v>
       </c>
@@ -5699,7 +5692,7 @@
         <v>689</v>
       </c>
       <c r="D58" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>167</v>
@@ -5733,7 +5726,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>627</v>
       </c>
@@ -5744,7 +5737,7 @@
         <v>689</v>
       </c>
       <c r="D59" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>171</v>
@@ -5789,7 +5782,7 @@
         <v>693</v>
       </c>
       <c r="D60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>173</v>
@@ -5823,7 +5816,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>627</v>
       </c>
@@ -5834,7 +5827,7 @@
         <v>703</v>
       </c>
       <c r="D61" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>176</v>
@@ -5868,7 +5861,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>638</v>
       </c>
@@ -5879,7 +5872,7 @@
         <v>678</v>
       </c>
       <c r="D62" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>178</v>
@@ -5913,7 +5906,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>624</v>
       </c>
@@ -5924,7 +5917,7 @@
         <v>691</v>
       </c>
       <c r="D63" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>182</v>
@@ -5958,7 +5951,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>641</v>
       </c>
@@ -5969,7 +5962,7 @@
         <v>682</v>
       </c>
       <c r="D64" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>183</v>
@@ -6003,7 +5996,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>627</v>
       </c>
@@ -6014,7 +6007,7 @@
         <v>684</v>
       </c>
       <c r="D65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>187</v>
@@ -6048,7 +6041,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>627</v>
       </c>
@@ -6059,7 +6052,7 @@
         <v>684</v>
       </c>
       <c r="D66" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>188</v>
@@ -6104,7 +6097,7 @@
         <v>693</v>
       </c>
       <c r="D67" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>116</v>
@@ -6138,7 +6131,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>627</v>
       </c>
@@ -6149,7 +6142,7 @@
         <v>686</v>
       </c>
       <c r="D68" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>190</v>
@@ -6183,7 +6176,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>627</v>
       </c>
@@ -6194,7 +6187,7 @@
         <v>705</v>
       </c>
       <c r="D69" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>192</v>
@@ -6228,7 +6221,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>627</v>
       </c>
@@ -6239,7 +6232,7 @@
         <v>684</v>
       </c>
       <c r="D70" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>195</v>
@@ -6273,7 +6266,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>624</v>
       </c>
@@ -6284,7 +6277,7 @@
         <v>696</v>
       </c>
       <c r="D71" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>197</v>
@@ -6318,7 +6311,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>627</v>
       </c>
@@ -6329,7 +6322,7 @@
         <v>684</v>
       </c>
       <c r="D72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>198</v>
@@ -6363,7 +6356,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>627</v>
       </c>
@@ -6374,7 +6367,7 @@
         <v>689</v>
       </c>
       <c r="D73" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>199</v>
@@ -6408,7 +6401,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>627</v>
       </c>
@@ -6419,7 +6412,7 @@
         <v>686</v>
       </c>
       <c r="D74" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>200</v>
@@ -6453,7 +6446,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>627</v>
       </c>
@@ -6464,7 +6457,7 @@
         <v>684</v>
       </c>
       <c r="D75" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>201</v>
@@ -6498,7 +6491,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>624</v>
       </c>
@@ -6509,7 +6502,7 @@
         <v>678</v>
       </c>
       <c r="D76" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>202</v>
@@ -6543,7 +6536,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>627</v>
       </c>
@@ -6554,7 +6547,7 @@
         <v>684</v>
       </c>
       <c r="D77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>204</v>
@@ -6588,7 +6581,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>627</v>
       </c>
@@ -6599,7 +6592,7 @@
         <v>682</v>
       </c>
       <c r="D78" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>205</v>
@@ -6633,7 +6626,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>624</v>
       </c>
@@ -6644,7 +6637,7 @@
         <v>699</v>
       </c>
       <c r="D79" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>20</v>
@@ -6678,7 +6671,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>627</v>
       </c>
@@ -6689,7 +6682,7 @@
         <v>686</v>
       </c>
       <c r="D80" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>207</v>
@@ -6723,7 +6716,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>627</v>
       </c>
@@ -6734,7 +6727,7 @@
         <v>686</v>
       </c>
       <c r="D81" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>209</v>
@@ -6768,7 +6761,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>627</v>
       </c>
@@ -6779,7 +6772,7 @@
         <v>686</v>
       </c>
       <c r="D82" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>210</v>
@@ -6813,7 +6806,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>627</v>
       </c>
@@ -6824,7 +6817,7 @@
         <v>684</v>
       </c>
       <c r="D83" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>213</v>
@@ -6858,7 +6851,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>627</v>
       </c>
@@ -6869,7 +6862,7 @@
         <v>684</v>
       </c>
       <c r="D84" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>214</v>
@@ -6903,7 +6896,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>624</v>
       </c>
@@ -6914,7 +6907,7 @@
         <v>678</v>
       </c>
       <c r="D85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>215</v>
@@ -6948,7 +6941,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>624</v>
       </c>
@@ -6959,7 +6952,7 @@
         <v>706</v>
       </c>
       <c r="D86" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>216</v>
@@ -7004,7 +6997,7 @@
         <v>693</v>
       </c>
       <c r="D87" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>14</v>
@@ -7038,7 +7031,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>627</v>
       </c>
@@ -7049,7 +7042,7 @@
         <v>686</v>
       </c>
       <c r="D88" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>219</v>
@@ -7083,7 +7076,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>624</v>
       </c>
@@ -7094,7 +7087,7 @@
         <v>691</v>
       </c>
       <c r="D89" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>221</v>
@@ -7128,7 +7121,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>627</v>
       </c>
@@ -7139,7 +7132,7 @@
         <v>708</v>
       </c>
       <c r="D90" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>223</v>
@@ -7184,7 +7177,7 @@
         <v>693</v>
       </c>
       <c r="D91" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>225</v>
@@ -7218,7 +7211,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>627</v>
       </c>
@@ -7229,7 +7222,7 @@
         <v>689</v>
       </c>
       <c r="D92" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>227</v>
@@ -7263,7 +7256,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>627</v>
       </c>
@@ -7274,7 +7267,7 @@
         <v>689</v>
       </c>
       <c r="D93" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>228</v>
@@ -7308,7 +7301,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>627</v>
       </c>
@@ -7319,7 +7312,7 @@
         <v>684</v>
       </c>
       <c r="D94" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>229</v>
@@ -7353,7 +7346,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>624</v>
       </c>
@@ -7364,7 +7357,7 @@
         <v>678</v>
       </c>
       <c r="D95" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>231</v>
@@ -7398,7 +7391,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>627</v>
       </c>
@@ -7409,7 +7402,7 @@
         <v>689</v>
       </c>
       <c r="D96" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>232</v>
@@ -7443,7 +7436,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>624</v>
       </c>
@@ -7454,7 +7447,7 @@
         <v>710</v>
       </c>
       <c r="D97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>233</v>
@@ -7488,7 +7481,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>624</v>
       </c>
@@ -7499,7 +7492,7 @@
         <v>699</v>
       </c>
       <c r="D98" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>151</v>
@@ -7533,7 +7526,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>624</v>
       </c>
@@ -7544,7 +7537,7 @@
         <v>680</v>
       </c>
       <c r="D99" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>238</v>
@@ -7578,7 +7571,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>624</v>
       </c>
@@ -7589,7 +7582,7 @@
         <v>680</v>
       </c>
       <c r="D100" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>242</v>
@@ -7623,7 +7616,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>624</v>
       </c>
@@ -7634,7 +7627,7 @@
         <v>680</v>
       </c>
       <c r="D101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>244</v>
@@ -7668,7 +7661,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>627</v>
       </c>
@@ -7679,7 +7672,7 @@
         <v>689</v>
       </c>
       <c r="D102" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>245</v>
@@ -7713,7 +7706,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>627</v>
       </c>
@@ -7724,7 +7717,7 @@
         <v>682</v>
       </c>
       <c r="D103" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>248</v>
@@ -7758,7 +7751,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>627</v>
       </c>
@@ -7769,7 +7762,7 @@
         <v>684</v>
       </c>
       <c r="D104" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>250</v>
@@ -7803,7 +7796,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>627</v>
       </c>
@@ -7814,7 +7807,7 @@
         <v>686</v>
       </c>
       <c r="D105" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>251</v>
@@ -7848,7 +7841,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>627</v>
       </c>
@@ -7859,7 +7852,7 @@
         <v>712</v>
       </c>
       <c r="D106" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>252</v>
@@ -7893,7 +7886,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>624</v>
       </c>
@@ -7904,7 +7897,7 @@
         <v>701</v>
       </c>
       <c r="D107" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>253</v>
@@ -7938,7 +7931,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>624</v>
       </c>
@@ -7949,7 +7942,7 @@
         <v>710</v>
       </c>
       <c r="D108" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>255</v>
@@ -7983,7 +7976,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>627</v>
       </c>
@@ -7994,7 +7987,7 @@
         <v>684</v>
       </c>
       <c r="D109" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>257</v>
@@ -8028,7 +8021,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>627</v>
       </c>
@@ -8039,7 +8032,7 @@
         <v>684</v>
       </c>
       <c r="D110" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>258</v>
@@ -8073,7 +8066,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>627</v>
       </c>
@@ -8084,7 +8077,7 @@
         <v>689</v>
       </c>
       <c r="D111" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>259</v>
@@ -8118,7 +8111,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>627</v>
       </c>
@@ -8129,7 +8122,7 @@
         <v>684</v>
       </c>
       <c r="D112" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>260</v>
@@ -8163,7 +8156,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>657</v>
       </c>
@@ -8174,7 +8167,7 @@
         <v>698</v>
       </c>
       <c r="D113" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>261</v>
@@ -8208,7 +8201,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>657</v>
       </c>
@@ -8219,7 +8212,7 @@
         <v>698</v>
       </c>
       <c r="D114" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>264</v>
@@ -8264,7 +8257,7 @@
         <v>693</v>
       </c>
       <c r="D115" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>263</v>
@@ -8298,7 +8291,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>657</v>
       </c>
@@ -8309,7 +8302,7 @@
         <v>698</v>
       </c>
       <c r="D116" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>267</v>
@@ -8343,7 +8336,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>627</v>
       </c>
@@ -8354,7 +8347,7 @@
         <v>682</v>
       </c>
       <c r="D117" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>277</v>
@@ -8399,7 +8392,7 @@
         <v>688</v>
       </c>
       <c r="D118" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>280</v>
@@ -8433,7 +8426,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>661</v>
       </c>
@@ -8444,7 +8437,7 @@
         <v>715</v>
       </c>
       <c r="D119" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>283</v>
@@ -8478,7 +8471,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>661</v>
       </c>
@@ -8489,7 +8482,7 @@
         <v>715</v>
       </c>
       <c r="D120" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>285</v>
@@ -8523,7 +8516,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>627</v>
       </c>
@@ -8534,7 +8527,7 @@
         <v>689</v>
       </c>
       <c r="D121" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>289</v>
@@ -8568,7 +8561,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>627</v>
       </c>
@@ -8579,7 +8572,7 @@
         <v>689</v>
       </c>
       <c r="D122" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>291</v>
@@ -8624,7 +8617,7 @@
         <v>688</v>
       </c>
       <c r="D123" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>296</v>
@@ -8658,7 +8651,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>661</v>
       </c>
@@ -8669,7 +8662,7 @@
         <v>715</v>
       </c>
       <c r="D124" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>297</v>
@@ -8703,7 +8696,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>627</v>
       </c>
@@ -8714,7 +8707,7 @@
         <v>684</v>
       </c>
       <c r="D125" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>299</v>
@@ -8748,7 +8741,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>661</v>
       </c>
@@ -8759,7 +8752,7 @@
         <v>715</v>
       </c>
       <c r="D126" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>300</v>
@@ -8793,7 +8786,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>661</v>
       </c>
@@ -8804,7 +8797,7 @@
         <v>717</v>
       </c>
       <c r="D127" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>302</v>
@@ -8838,7 +8831,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>661</v>
       </c>
@@ -8849,7 +8842,7 @@
         <v>712</v>
       </c>
       <c r="D128" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>305</v>
@@ -8883,7 +8876,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>661</v>
       </c>
@@ -8894,7 +8887,7 @@
         <v>715</v>
       </c>
       <c r="D129" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>308</v>
@@ -8928,7 +8921,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>661</v>
       </c>
@@ -8939,7 +8932,7 @@
         <v>717</v>
       </c>
       <c r="D130" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>310</v>
@@ -8973,7 +8966,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>661</v>
       </c>
@@ -8984,7 +8977,7 @@
         <v>712</v>
       </c>
       <c r="D131" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>312</v>
@@ -9018,7 +9011,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>658</v>
       </c>
@@ -9029,7 +9022,7 @@
         <v>682</v>
       </c>
       <c r="D132" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>313</v>
@@ -9063,7 +9056,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>627</v>
       </c>
@@ -9074,7 +9067,7 @@
         <v>705</v>
       </c>
       <c r="D133" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>315</v>
@@ -9108,7 +9101,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>627</v>
       </c>
@@ -9119,7 +9112,7 @@
         <v>684</v>
       </c>
       <c r="D134" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>316</v>
@@ -9153,7 +9146,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>661</v>
       </c>
@@ -9164,7 +9157,7 @@
         <v>703</v>
       </c>
       <c r="D135" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>317</v>
@@ -9198,7 +9191,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>661</v>
       </c>
@@ -9209,7 +9202,7 @@
         <v>682</v>
       </c>
       <c r="D136" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>318</v>
@@ -9243,7 +9236,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>661</v>
       </c>
@@ -9254,7 +9247,7 @@
         <v>682</v>
       </c>
       <c r="D137" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>320</v>
@@ -9288,7 +9281,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>661</v>
       </c>
@@ -9299,7 +9292,7 @@
         <v>703</v>
       </c>
       <c r="D138" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>322</v>
@@ -9333,7 +9326,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>627</v>
       </c>
@@ -9344,7 +9337,7 @@
         <v>684</v>
       </c>
       <c r="D139" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>323</v>
@@ -9378,7 +9371,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>661</v>
       </c>
@@ -9389,7 +9382,7 @@
         <v>715</v>
       </c>
       <c r="D140" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>324</v>
@@ -9423,7 +9416,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>627</v>
       </c>
@@ -9434,7 +9427,7 @@
         <v>684</v>
       </c>
       <c r="D141" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>325</v>
@@ -9468,7 +9461,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>661</v>
       </c>
@@ -9479,7 +9472,7 @@
         <v>712</v>
       </c>
       <c r="D142" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>326</v>
@@ -9513,7 +9506,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>661</v>
       </c>
@@ -9524,7 +9517,7 @@
         <v>717</v>
       </c>
       <c r="D143" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>327</v>
@@ -9558,7 +9551,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>661</v>
       </c>
@@ -9569,7 +9562,7 @@
         <v>715</v>
       </c>
       <c r="D144" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>307</v>
@@ -9603,7 +9596,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>627</v>
       </c>
@@ -9614,7 +9607,7 @@
         <v>682</v>
       </c>
       <c r="D145" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>328</v>
@@ -9648,7 +9641,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>661</v>
       </c>
@@ -9659,7 +9652,7 @@
         <v>682</v>
       </c>
       <c r="D146" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>330</v>
@@ -9693,7 +9686,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>627</v>
       </c>
@@ -9704,7 +9697,7 @@
         <v>689</v>
       </c>
       <c r="D147" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>331</v>
@@ -9738,7 +9731,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>661</v>
       </c>
@@ -9749,7 +9742,7 @@
         <v>715</v>
       </c>
       <c r="D148" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>333</v>
@@ -9783,7 +9776,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>627</v>
       </c>
@@ -9794,7 +9787,7 @@
         <v>682</v>
       </c>
       <c r="D149" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>334</v>
@@ -9828,7 +9821,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>627</v>
       </c>
@@ -9839,7 +9832,7 @@
         <v>705</v>
       </c>
       <c r="D150" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>335</v>
@@ -9873,7 +9866,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>627</v>
       </c>
@@ -9884,7 +9877,7 @@
         <v>682</v>
       </c>
       <c r="D151" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>336</v>
@@ -9918,7 +9911,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>661</v>
       </c>
@@ -9929,7 +9922,7 @@
         <v>715</v>
       </c>
       <c r="D152" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>337</v>
@@ -9963,7 +9956,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>627</v>
       </c>
@@ -9974,7 +9967,7 @@
         <v>705</v>
       </c>
       <c r="D153" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>338</v>
@@ -10008,7 +10001,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>627</v>
       </c>
@@ -10019,7 +10012,7 @@
         <v>705</v>
       </c>
       <c r="D154" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>340</v>
@@ -10053,7 +10046,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>627</v>
       </c>
@@ -10064,7 +10057,7 @@
         <v>705</v>
       </c>
       <c r="D155" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>341</v>
@@ -10098,7 +10091,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>627</v>
       </c>
@@ -10109,7 +10102,7 @@
         <v>705</v>
       </c>
       <c r="D156" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>342</v>
@@ -10143,7 +10136,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>627</v>
       </c>
@@ -10154,7 +10147,7 @@
         <v>682</v>
       </c>
       <c r="D157" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>343</v>
@@ -10188,7 +10181,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>661</v>
       </c>
@@ -10199,7 +10192,7 @@
         <v>712</v>
       </c>
       <c r="D158" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>344</v>
@@ -10233,7 +10226,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>658</v>
       </c>
@@ -10244,7 +10237,7 @@
         <v>682</v>
       </c>
       <c r="D159" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>345</v>
@@ -10278,7 +10271,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>627</v>
       </c>
@@ -10289,7 +10282,7 @@
         <v>705</v>
       </c>
       <c r="D160" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>347</v>
@@ -10323,7 +10316,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>658</v>
       </c>
@@ -10334,7 +10327,7 @@
         <v>682</v>
       </c>
       <c r="D161" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>348</v>
@@ -10368,7 +10361,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>661</v>
       </c>
@@ -10379,7 +10372,7 @@
         <v>682</v>
       </c>
       <c r="D162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>350</v>
@@ -10413,7 +10406,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>661</v>
       </c>
@@ -10424,7 +10417,7 @@
         <v>715</v>
       </c>
       <c r="D163" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>351</v>
@@ -10458,7 +10451,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>658</v>
       </c>
@@ -10469,7 +10462,7 @@
         <v>715</v>
       </c>
       <c r="D164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>352</v>
@@ -10503,7 +10496,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>627</v>
       </c>
@@ -10514,7 +10507,7 @@
         <v>705</v>
       </c>
       <c r="D165" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>353</v>
@@ -10548,7 +10541,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>661</v>
       </c>
@@ -10559,7 +10552,7 @@
         <v>715</v>
       </c>
       <c r="D166" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>354</v>
@@ -10593,7 +10586,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>658</v>
       </c>
@@ -10604,7 +10597,7 @@
         <v>715</v>
       </c>
       <c r="D167" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>355</v>
@@ -10638,7 +10631,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>627</v>
       </c>
@@ -10649,7 +10642,7 @@
         <v>684</v>
       </c>
       <c r="D168" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>356</v>
@@ -10683,7 +10676,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>661</v>
       </c>
@@ -10694,7 +10687,7 @@
         <v>715</v>
       </c>
       <c r="D169" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>357</v>
@@ -10728,7 +10721,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>661</v>
       </c>
@@ -10739,7 +10732,7 @@
         <v>682</v>
       </c>
       <c r="D170" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>358</v>
@@ -10773,7 +10766,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>627</v>
       </c>
@@ -10784,7 +10777,7 @@
         <v>682</v>
       </c>
       <c r="D171" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>359</v>
@@ -10818,7 +10811,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>627</v>
       </c>
@@ -10829,7 +10822,7 @@
         <v>705</v>
       </c>
       <c r="D172" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>360</v>
@@ -10863,7 +10856,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>641</v>
       </c>
@@ -10874,7 +10867,7 @@
         <v>698</v>
       </c>
       <c r="D173" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>361</v>
@@ -10919,7 +10912,7 @@
         <v>693</v>
       </c>
       <c r="D174" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>362</v>
@@ -10953,7 +10946,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>627</v>
       </c>
@@ -10964,7 +10957,7 @@
         <v>684</v>
       </c>
       <c r="D175" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>364</v>
@@ -10998,7 +10991,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>627</v>
       </c>
@@ -11009,7 +11002,7 @@
         <v>689</v>
       </c>
       <c r="D176" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>365</v>
@@ -11043,7 +11036,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>658</v>
       </c>
@@ -11054,7 +11047,7 @@
         <v>682</v>
       </c>
       <c r="D177" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>366</v>
@@ -11088,7 +11081,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>627</v>
       </c>
@@ -11099,7 +11092,7 @@
         <v>689</v>
       </c>
       <c r="D178" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>368</v>
@@ -11133,7 +11126,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>627</v>
       </c>
@@ -11144,7 +11137,7 @@
         <v>686</v>
       </c>
       <c r="D179" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>369</v>
@@ -11178,7 +11171,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>627</v>
       </c>
@@ -11189,7 +11182,7 @@
         <v>705</v>
       </c>
       <c r="D180" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>370</v>
@@ -11223,7 +11216,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>627</v>
       </c>
@@ -11234,7 +11227,7 @@
         <v>705</v>
       </c>
       <c r="D181" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>371</v>
@@ -11268,7 +11261,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>627</v>
       </c>
@@ -11279,7 +11272,7 @@
         <v>686</v>
       </c>
       <c r="D182" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>372</v>
@@ -11313,7 +11306,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>627</v>
       </c>
@@ -11324,7 +11317,7 @@
         <v>689</v>
       </c>
       <c r="D183" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>373</v>
@@ -11358,7 +11351,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>627</v>
       </c>
@@ -11369,7 +11362,7 @@
         <v>684</v>
       </c>
       <c r="D184" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>374</v>
@@ -11403,7 +11396,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>627</v>
       </c>
@@ -11414,7 +11407,7 @@
         <v>684</v>
       </c>
       <c r="D185" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>375</v>
@@ -11448,7 +11441,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>627</v>
       </c>
@@ -11459,7 +11452,7 @@
         <v>686</v>
       </c>
       <c r="D186" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>376</v>
@@ -11493,7 +11486,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>627</v>
       </c>
@@ -11504,7 +11497,7 @@
         <v>705</v>
       </c>
       <c r="D187" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>377</v>
@@ -11538,7 +11531,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>627</v>
       </c>
@@ -11549,7 +11542,7 @@
         <v>705</v>
       </c>
       <c r="D188" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>378</v>
@@ -11583,7 +11576,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>627</v>
       </c>
@@ -11594,7 +11587,7 @@
         <v>689</v>
       </c>
       <c r="D189" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>379</v>
@@ -11628,7 +11621,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>664</v>
       </c>
@@ -11639,7 +11632,7 @@
         <v>721</v>
       </c>
       <c r="D190" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>380</v>
@@ -11684,7 +11677,7 @@
         <v>693</v>
       </c>
       <c r="D191" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>385</v>
@@ -11718,7 +11711,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>664</v>
       </c>
@@ -11729,7 +11722,7 @@
         <v>721</v>
       </c>
       <c r="D192" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>387</v>
@@ -11763,7 +11756,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>664</v>
       </c>
@@ -11774,7 +11767,7 @@
         <v>721</v>
       </c>
       <c r="D193" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>391</v>
@@ -11808,7 +11801,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>664</v>
       </c>
@@ -11819,7 +11812,7 @@
         <v>721</v>
       </c>
       <c r="D194" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>392</v>
@@ -11853,7 +11846,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>664</v>
       </c>
@@ -11864,7 +11857,7 @@
         <v>721</v>
       </c>
       <c r="D195" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>393</v>
@@ -11898,7 +11891,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>664</v>
       </c>
@@ -11909,7 +11902,7 @@
         <v>721</v>
       </c>
       <c r="D196" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>394</v>
@@ -11943,7 +11936,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>664</v>
       </c>
@@ -11954,7 +11947,7 @@
         <v>721</v>
       </c>
       <c r="D197" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>395</v>
@@ -11988,7 +11981,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>664</v>
       </c>
@@ -11999,7 +11992,7 @@
         <v>721</v>
       </c>
       <c r="D198" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>396</v>
@@ -12033,7 +12026,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>664</v>
       </c>
@@ -12044,7 +12037,7 @@
         <v>721</v>
       </c>
       <c r="D199" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>397</v>
@@ -12078,7 +12071,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>664</v>
       </c>
@@ -12089,7 +12082,7 @@
         <v>721</v>
       </c>
       <c r="D200" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>398</v>
@@ -12123,7 +12116,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>664</v>
       </c>
@@ -12134,7 +12127,7 @@
         <v>721</v>
       </c>
       <c r="D201" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>399</v>
@@ -12168,7 +12161,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>664</v>
       </c>
@@ -12179,7 +12172,7 @@
         <v>721</v>
       </c>
       <c r="D202" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>401</v>
@@ -12213,7 +12206,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>627</v>
       </c>
@@ -12224,7 +12217,7 @@
         <v>684</v>
       </c>
       <c r="D203" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>402</v>
@@ -12258,7 +12251,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>664</v>
       </c>
@@ -12269,7 +12262,7 @@
         <v>721</v>
       </c>
       <c r="D204" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>403</v>
@@ -12303,7 +12296,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>664</v>
       </c>
@@ -12314,7 +12307,7 @@
         <v>721</v>
       </c>
       <c r="D205" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>404</v>
@@ -12348,7 +12341,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>664</v>
       </c>
@@ -12359,7 +12352,7 @@
         <v>721</v>
       </c>
       <c r="D206" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>405</v>
@@ -12393,7 +12386,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>664</v>
       </c>
@@ -12404,7 +12397,7 @@
         <v>721</v>
       </c>
       <c r="D207" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>406</v>
@@ -12438,7 +12431,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>664</v>
       </c>
@@ -12449,7 +12442,7 @@
         <v>721</v>
       </c>
       <c r="D208" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>409</v>
@@ -12483,7 +12476,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>627</v>
       </c>
@@ -12494,7 +12487,7 @@
         <v>689</v>
       </c>
       <c r="D209" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>411</v>
@@ -12528,7 +12521,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>627</v>
       </c>
@@ -12539,7 +12532,7 @@
         <v>705</v>
       </c>
       <c r="D210" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>412</v>
@@ -12573,7 +12566,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>627</v>
       </c>
@@ -12584,7 +12577,7 @@
         <v>705</v>
       </c>
       <c r="D211" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>413</v>
@@ -12618,7 +12611,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>664</v>
       </c>
@@ -12629,7 +12622,7 @@
         <v>721</v>
       </c>
       <c r="D212" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>414</v>
@@ -12663,7 +12656,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>627</v>
       </c>
@@ -12674,7 +12667,7 @@
         <v>705</v>
       </c>
       <c r="D213" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>416</v>
@@ -12708,7 +12701,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>627</v>
       </c>
@@ -12719,7 +12712,7 @@
         <v>689</v>
       </c>
       <c r="D214" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>417</v>
@@ -12753,7 +12746,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>664</v>
       </c>
@@ -12764,7 +12757,7 @@
         <v>721</v>
       </c>
       <c r="D215" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>418</v>
@@ -12798,7 +12791,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>664</v>
       </c>
@@ -12809,7 +12802,7 @@
         <v>721</v>
       </c>
       <c r="D216" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>419</v>
@@ -12843,7 +12836,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>658</v>
       </c>
@@ -12854,7 +12847,7 @@
         <v>682</v>
       </c>
       <c r="D217" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>421</v>
@@ -12888,7 +12881,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>664</v>
       </c>
@@ -12899,7 +12892,7 @@
         <v>721</v>
       </c>
       <c r="D218" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>422</v>
@@ -12933,7 +12926,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>664</v>
       </c>
@@ -12944,7 +12937,7 @@
         <v>721</v>
       </c>
       <c r="D219" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>423</v>
@@ -12978,7 +12971,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>664</v>
       </c>
@@ -12989,7 +12982,7 @@
         <v>721</v>
       </c>
       <c r="D220" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>424</v>
@@ -13023,7 +13016,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>664</v>
       </c>
@@ -13034,7 +13027,7 @@
         <v>721</v>
       </c>
       <c r="D221" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>425</v>
@@ -13068,7 +13061,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>627</v>
       </c>
@@ -13079,7 +13072,7 @@
         <v>705</v>
       </c>
       <c r="D222" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>426</v>
@@ -13113,7 +13106,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>664</v>
       </c>
@@ -13124,7 +13117,7 @@
         <v>721</v>
       </c>
       <c r="D223" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>427</v>
@@ -13158,7 +13151,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>664</v>
       </c>
@@ -13169,7 +13162,7 @@
         <v>721</v>
       </c>
       <c r="D224" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>428</v>
@@ -13203,7 +13196,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>627</v>
       </c>
@@ -13214,7 +13207,7 @@
         <v>689</v>
       </c>
       <c r="D225" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>429</v>
@@ -13248,7 +13241,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>664</v>
       </c>
@@ -13259,7 +13252,7 @@
         <v>721</v>
       </c>
       <c r="D226" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>430</v>
@@ -13293,7 +13286,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>658</v>
       </c>
@@ -13304,7 +13297,7 @@
         <v>715</v>
       </c>
       <c r="D227" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>431</v>
@@ -13338,7 +13331,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>627</v>
       </c>
@@ -13349,7 +13342,7 @@
         <v>705</v>
       </c>
       <c r="D228" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>432</v>
@@ -13383,7 +13376,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>664</v>
       </c>
@@ -13394,7 +13387,7 @@
         <v>721</v>
       </c>
       <c r="D229" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>433</v>
@@ -13428,7 +13421,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>641</v>
       </c>
@@ -13439,7 +13432,7 @@
         <v>698</v>
       </c>
       <c r="D230" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>434</v>
@@ -13473,7 +13466,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>670</v>
       </c>
@@ -13484,7 +13477,7 @@
         <v>703</v>
       </c>
       <c r="D231" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>435</v>
@@ -13518,7 +13511,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>627</v>
       </c>
@@ -13529,7 +13522,7 @@
         <v>705</v>
       </c>
       <c r="D232" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>438</v>
@@ -13574,7 +13567,7 @@
         <v>688</v>
       </c>
       <c r="D233" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>440</v>
@@ -13608,7 +13601,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>670</v>
       </c>
@@ -13619,7 +13612,7 @@
         <v>715</v>
       </c>
       <c r="D234" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>443</v>
@@ -13653,7 +13646,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>627</v>
       </c>
@@ -13664,7 +13657,7 @@
         <v>703</v>
       </c>
       <c r="D235" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>445</v>
@@ -13698,7 +13691,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>627</v>
       </c>
@@ -13709,7 +13702,7 @@
         <v>684</v>
       </c>
       <c r="D236" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>446</v>
@@ -13754,7 +13747,7 @@
         <v>688</v>
       </c>
       <c r="D237" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>444</v>
@@ -13788,7 +13781,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>670</v>
       </c>
@@ -13799,7 +13792,7 @@
         <v>715</v>
       </c>
       <c r="D238" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>437</v>
@@ -13833,7 +13826,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>670</v>
       </c>
@@ -13844,7 +13837,7 @@
         <v>703</v>
       </c>
       <c r="D239" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>449</v>
@@ -13878,7 +13871,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>671</v>
       </c>
@@ -13889,7 +13882,7 @@
         <v>726</v>
       </c>
       <c r="D240" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>446</v>
@@ -13923,7 +13916,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>670</v>
       </c>
@@ -13934,7 +13927,7 @@
         <v>703</v>
       </c>
       <c r="D241" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>451</v>
@@ -13968,7 +13961,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>627</v>
       </c>
@@ -13979,7 +13972,7 @@
         <v>728</v>
       </c>
       <c r="D242" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>452</v>
@@ -14013,7 +14006,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>627</v>
       </c>
@@ -14024,7 +14017,7 @@
         <v>728</v>
       </c>
       <c r="D243" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>456</v>
@@ -14058,7 +14051,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>627</v>
       </c>
@@ -14069,7 +14062,7 @@
         <v>686</v>
       </c>
       <c r="D244" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>457</v>
@@ -14103,7 +14096,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>627</v>
       </c>
@@ -14114,7 +14107,7 @@
         <v>686</v>
       </c>
       <c r="D245" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>458</v>
@@ -14148,7 +14141,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>671</v>
       </c>
@@ -14159,7 +14152,7 @@
         <v>726</v>
       </c>
       <c r="D246" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>460</v>
@@ -14193,7 +14186,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>627</v>
       </c>
@@ -14204,7 +14197,7 @@
         <v>686</v>
       </c>
       <c r="D247" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>462</v>
@@ -14238,7 +14231,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>627</v>
       </c>
@@ -14249,7 +14242,7 @@
         <v>689</v>
       </c>
       <c r="D248" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>463</v>
@@ -14283,7 +14276,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>671</v>
       </c>
@@ -14294,7 +14287,7 @@
         <v>726</v>
       </c>
       <c r="D249" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>464</v>
@@ -14328,7 +14321,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>671</v>
       </c>
@@ -14339,7 +14332,7 @@
         <v>726</v>
       </c>
       <c r="D250" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>465</v>
@@ -14373,7 +14366,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>671</v>
       </c>
@@ -14384,7 +14377,7 @@
         <v>726</v>
       </c>
       <c r="D251" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>466</v>
@@ -14418,7 +14411,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>671</v>
       </c>
@@ -14429,7 +14422,7 @@
         <v>682</v>
       </c>
       <c r="D252" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>467</v>
@@ -14463,7 +14456,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>627</v>
       </c>
@@ -14474,7 +14467,7 @@
         <v>728</v>
       </c>
       <c r="D253" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>469</v>
@@ -14508,7 +14501,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>627</v>
       </c>
@@ -14519,7 +14512,7 @@
         <v>728</v>
       </c>
       <c r="D254" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>470</v>
@@ -14553,7 +14546,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>627</v>
       </c>
@@ -14564,7 +14557,7 @@
         <v>728</v>
       </c>
       <c r="D255" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>471</v>
@@ -14598,7 +14591,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>671</v>
       </c>
@@ -14609,7 +14602,7 @@
         <v>682</v>
       </c>
       <c r="D256" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>473</v>
@@ -14643,7 +14636,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>670</v>
       </c>
@@ -14654,7 +14647,7 @@
         <v>715</v>
       </c>
       <c r="D257" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>475</v>
@@ -14688,7 +14681,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>627</v>
       </c>
@@ -14699,7 +14692,7 @@
         <v>684</v>
       </c>
       <c r="D258" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>476</v>
@@ -14733,7 +14726,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>671</v>
       </c>
@@ -14744,7 +14737,7 @@
         <v>726</v>
       </c>
       <c r="D259" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>477</v>
@@ -14778,7 +14771,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>671</v>
       </c>
@@ -14789,7 +14782,7 @@
         <v>726</v>
       </c>
       <c r="D260" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>478</v>
@@ -14823,7 +14816,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>671</v>
       </c>
@@ -14834,7 +14827,7 @@
         <v>731</v>
       </c>
       <c r="D261" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>479</v>
@@ -14868,7 +14861,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>671</v>
       </c>
@@ -14879,7 +14872,7 @@
         <v>726</v>
       </c>
       <c r="D262" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>482</v>
@@ -14913,7 +14906,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>627</v>
       </c>
@@ -14924,7 +14917,7 @@
         <v>684</v>
       </c>
       <c r="D263" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>483</v>
@@ -14958,7 +14951,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>671</v>
       </c>
@@ -14969,7 +14962,7 @@
         <v>726</v>
       </c>
       <c r="D264" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>484</v>
@@ -15003,7 +14996,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>671</v>
       </c>
@@ -15014,7 +15007,7 @@
         <v>682</v>
       </c>
       <c r="D265" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>485</v>
@@ -15048,7 +15041,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>671</v>
       </c>
@@ -15059,7 +15052,7 @@
         <v>733</v>
       </c>
       <c r="D266" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>450</v>
@@ -15093,7 +15086,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>671</v>
       </c>
@@ -15104,7 +15097,7 @@
         <v>733</v>
       </c>
       <c r="D267" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>488</v>
@@ -15138,7 +15131,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>627</v>
       </c>
@@ -15149,7 +15142,7 @@
         <v>728</v>
       </c>
       <c r="D268" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>489</v>
@@ -15183,7 +15176,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>627</v>
       </c>
@@ -15194,7 +15187,7 @@
         <v>686</v>
       </c>
       <c r="D269" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>490</v>
@@ -15228,7 +15221,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>627</v>
       </c>
@@ -15239,7 +15232,7 @@
         <v>728</v>
       </c>
       <c r="D270" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>492</v>
@@ -15273,7 +15266,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>627</v>
       </c>
@@ -15284,7 +15277,7 @@
         <v>728</v>
       </c>
       <c r="D271" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>493</v>
@@ -15318,7 +15311,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>671</v>
       </c>
@@ -15329,7 +15322,7 @@
         <v>731</v>
       </c>
       <c r="D272" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>494</v>
@@ -15363,7 +15356,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>670</v>
       </c>
@@ -15374,7 +15367,7 @@
         <v>703</v>
       </c>
       <c r="D273" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>496</v>
@@ -15408,7 +15401,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>670</v>
       </c>
@@ -15419,7 +15412,7 @@
         <v>703</v>
       </c>
       <c r="D274" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>497</v>
@@ -15453,7 +15446,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>627</v>
       </c>
@@ -15464,7 +15457,7 @@
         <v>689</v>
       </c>
       <c r="D275" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>498</v>
@@ -15498,7 +15491,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>670</v>
       </c>
@@ -15509,7 +15502,7 @@
         <v>721</v>
       </c>
       <c r="D276" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>499</v>
@@ -15543,7 +15536,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>670</v>
       </c>
@@ -15554,7 +15547,7 @@
         <v>682</v>
       </c>
       <c r="D277" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>501</v>
@@ -15588,7 +15581,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>627</v>
       </c>
@@ -15599,7 +15592,7 @@
         <v>728</v>
       </c>
       <c r="D278" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>503</v>
@@ -15633,7 +15626,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>627</v>
       </c>
@@ -15644,7 +15637,7 @@
         <v>728</v>
       </c>
       <c r="D279" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>504</v>
@@ -15678,7 +15671,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>671</v>
       </c>
@@ -15689,7 +15682,7 @@
         <v>682</v>
       </c>
       <c r="D280" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>505</v>
@@ -15723,7 +15716,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>671</v>
       </c>
@@ -15734,7 +15727,7 @@
         <v>731</v>
       </c>
       <c r="D281" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>507</v>
@@ -15768,7 +15761,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>627</v>
       </c>
@@ -15779,7 +15772,7 @@
         <v>689</v>
       </c>
       <c r="D282" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>508</v>
@@ -15813,7 +15806,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>670</v>
       </c>
@@ -15824,7 +15817,7 @@
         <v>682</v>
       </c>
       <c r="D283" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>509</v>
@@ -15858,7 +15851,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>670</v>
       </c>
@@ -15869,7 +15862,7 @@
         <v>703</v>
       </c>
       <c r="D284" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>511</v>
@@ -15903,7 +15896,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>670</v>
       </c>
@@ -15914,7 +15907,7 @@
         <v>703</v>
       </c>
       <c r="D285" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>513</v>
@@ -15948,7 +15941,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>670</v>
       </c>
@@ -15959,7 +15952,7 @@
         <v>721</v>
       </c>
       <c r="D286" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>515</v>
@@ -15993,7 +15986,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>670</v>
       </c>
@@ -16004,7 +15997,7 @@
         <v>721</v>
       </c>
       <c r="D287" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>518</v>
@@ -16038,7 +16031,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>670</v>
       </c>
@@ -16049,7 +16042,7 @@
         <v>703</v>
       </c>
       <c r="D288" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>519</v>
@@ -16083,7 +16076,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>671</v>
       </c>
@@ -16094,7 +16087,7 @@
         <v>682</v>
       </c>
       <c r="D289" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>520</v>
@@ -16128,7 +16121,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>671</v>
       </c>
@@ -16139,7 +16132,7 @@
         <v>726</v>
       </c>
       <c r="D290" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>521</v>
@@ -16173,7 +16166,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>670</v>
       </c>
@@ -16184,7 +16177,7 @@
         <v>703</v>
       </c>
       <c r="D291" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>522</v>
@@ -16218,7 +16211,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>670</v>
       </c>
@@ -16229,7 +16222,7 @@
         <v>715</v>
       </c>
       <c r="D292" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>523</v>
@@ -16263,7 +16256,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>671</v>
       </c>
@@ -16274,7 +16267,7 @@
         <v>682</v>
       </c>
       <c r="D293" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>525</v>
@@ -16308,7 +16301,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>670</v>
       </c>
@@ -16319,7 +16312,7 @@
         <v>703</v>
       </c>
       <c r="D294" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>528</v>
@@ -16353,7 +16346,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>670</v>
       </c>
@@ -16364,7 +16357,7 @@
         <v>682</v>
       </c>
       <c r="D295" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>530</v>
@@ -16398,7 +16391,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>671</v>
       </c>
@@ -16409,7 +16402,7 @@
         <v>731</v>
       </c>
       <c r="D296" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>531</v>
@@ -16443,7 +16436,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>671</v>
       </c>
@@ -16454,7 +16447,7 @@
         <v>726</v>
       </c>
       <c r="D297" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>532</v>
@@ -16488,7 +16481,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>670</v>
       </c>
@@ -16499,7 +16492,7 @@
         <v>703</v>
       </c>
       <c r="D298" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>533</v>
@@ -16533,7 +16526,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>670</v>
       </c>
@@ -16544,7 +16537,7 @@
         <v>703</v>
       </c>
       <c r="D299" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>534</v>
@@ -16578,7 +16571,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>670</v>
       </c>
@@ -16589,7 +16582,7 @@
         <v>715</v>
       </c>
       <c r="D300" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>535</v>
@@ -16623,7 +16616,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>627</v>
       </c>
@@ -16634,7 +16627,7 @@
         <v>728</v>
       </c>
       <c r="D301" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>537</v>
@@ -16668,7 +16661,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>627</v>
       </c>
@@ -16679,7 +16672,7 @@
         <v>728</v>
       </c>
       <c r="D302" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>538</v>
@@ -16713,7 +16706,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>627</v>
       </c>
@@ -16724,7 +16717,7 @@
         <v>728</v>
       </c>
       <c r="D303" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>539</v>
@@ -16758,7 +16751,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>627</v>
       </c>
@@ -16769,7 +16762,7 @@
         <v>689</v>
       </c>
       <c r="D304" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>540</v>
@@ -16803,7 +16796,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>670</v>
       </c>
@@ -16814,7 +16807,7 @@
         <v>703</v>
       </c>
       <c r="D305" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>542</v>
@@ -16848,7 +16841,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>627</v>
       </c>
@@ -16859,7 +16852,7 @@
         <v>728</v>
       </c>
       <c r="D306" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>543</v>
@@ -16893,7 +16886,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>671</v>
       </c>
@@ -16904,7 +16897,7 @@
         <v>726</v>
       </c>
       <c r="D307" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>544</v>
@@ -16938,7 +16931,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>627</v>
       </c>
@@ -16949,7 +16942,7 @@
         <v>686</v>
       </c>
       <c r="D308" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>545</v>
@@ -16983,7 +16976,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>671</v>
       </c>
@@ -16994,7 +16987,7 @@
         <v>726</v>
       </c>
       <c r="D309" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>546</v>
@@ -17028,7 +17021,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>627</v>
       </c>
@@ -17039,7 +17032,7 @@
         <v>728</v>
       </c>
       <c r="D310" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>547</v>
@@ -17073,7 +17066,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>627</v>
       </c>
@@ -17084,7 +17077,7 @@
         <v>689</v>
       </c>
       <c r="D311" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>455</v>
@@ -17118,7 +17111,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>671</v>
       </c>
@@ -17129,7 +17122,7 @@
         <v>682</v>
       </c>
       <c r="D312" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>548</v>
@@ -17163,7 +17156,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>670</v>
       </c>
@@ -17174,7 +17167,7 @@
         <v>682</v>
       </c>
       <c r="D313" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>549</v>
@@ -17208,7 +17201,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>627</v>
       </c>
@@ -17219,7 +17212,7 @@
         <v>728</v>
       </c>
       <c r="D314" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>551</v>
@@ -17253,7 +17246,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>670</v>
       </c>
@@ -17264,7 +17257,7 @@
         <v>721</v>
       </c>
       <c r="D315" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>552</v>
@@ -17298,7 +17291,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>627</v>
       </c>
@@ -17309,7 +17302,7 @@
         <v>728</v>
       </c>
       <c r="D316" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>553</v>
@@ -17343,7 +17336,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>671</v>
       </c>
@@ -17354,7 +17347,7 @@
         <v>726</v>
       </c>
       <c r="D317" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>554</v>
@@ -17388,7 +17381,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>670</v>
       </c>
@@ -17399,7 +17392,7 @@
         <v>703</v>
       </c>
       <c r="D318" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>555</v>
@@ -17433,7 +17426,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>670</v>
       </c>
@@ -17444,7 +17437,7 @@
         <v>703</v>
       </c>
       <c r="D319" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>557</v>
@@ -17478,7 +17471,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>670</v>
       </c>
@@ -17489,7 +17482,7 @@
         <v>703</v>
       </c>
       <c r="D320" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>558</v>
@@ -17523,7 +17516,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>670</v>
       </c>
@@ -17534,7 +17527,7 @@
         <v>703</v>
       </c>
       <c r="D321" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>559</v>
@@ -17568,7 +17561,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>670</v>
       </c>
@@ -17579,7 +17572,7 @@
         <v>703</v>
       </c>
       <c r="D322" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>560</v>
@@ -17613,7 +17606,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>670</v>
       </c>
@@ -17624,7 +17617,7 @@
         <v>721</v>
       </c>
       <c r="D323" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>561</v>
@@ -17658,7 +17651,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>670</v>
       </c>
@@ -17669,7 +17662,7 @@
         <v>721</v>
       </c>
       <c r="D324" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>563</v>
@@ -17703,7 +17696,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>671</v>
       </c>
@@ -17714,7 +17707,7 @@
         <v>733</v>
       </c>
       <c r="D325" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>481</v>
@@ -17748,7 +17741,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>670</v>
       </c>
@@ -17759,7 +17752,7 @@
         <v>682</v>
       </c>
       <c r="D326" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>566</v>
@@ -17793,7 +17786,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>670</v>
       </c>
@@ -17804,7 +17797,7 @@
         <v>721</v>
       </c>
       <c r="D327" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>567</v>
@@ -17838,7 +17831,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>670</v>
       </c>
@@ -17849,7 +17842,7 @@
         <v>721</v>
       </c>
       <c r="D328" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>568</v>
@@ -17883,7 +17876,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>671</v>
       </c>
@@ -17894,7 +17887,7 @@
         <v>733</v>
       </c>
       <c r="D329" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>569</v>
@@ -17928,7 +17921,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>671</v>
       </c>
@@ -17939,7 +17932,7 @@
         <v>682</v>
       </c>
       <c r="D330" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>570</v>
@@ -17973,7 +17966,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>670</v>
       </c>
@@ -17984,7 +17977,7 @@
         <v>682</v>
       </c>
       <c r="D331" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>571</v>
@@ -18018,7 +18011,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>670</v>
       </c>
@@ -18029,7 +18022,7 @@
         <v>721</v>
       </c>
       <c r="D332" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>572</v>
@@ -18063,7 +18056,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>670</v>
       </c>
@@ -18074,7 +18067,7 @@
         <v>721</v>
       </c>
       <c r="D333" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>573</v>
@@ -18108,7 +18101,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>670</v>
       </c>
@@ -18119,7 +18112,7 @@
         <v>721</v>
       </c>
       <c r="D334" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>576</v>
@@ -18153,7 +18146,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>671</v>
       </c>
@@ -18164,7 +18157,7 @@
         <v>682</v>
       </c>
       <c r="D335" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>577</v>
@@ -18198,7 +18191,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>670</v>
       </c>
@@ -18209,7 +18202,7 @@
         <v>703</v>
       </c>
       <c r="D336" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>578</v>
@@ -18243,7 +18236,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>670</v>
       </c>
@@ -18254,7 +18247,7 @@
         <v>703</v>
       </c>
       <c r="D337" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>579</v>
@@ -18288,7 +18281,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>671</v>
       </c>
@@ -18299,7 +18292,7 @@
         <v>682</v>
       </c>
       <c r="D338" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>580</v>
@@ -18333,7 +18326,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>670</v>
       </c>
@@ -18344,7 +18337,7 @@
         <v>721</v>
       </c>
       <c r="D339" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>581</v>
@@ -18378,7 +18371,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>670</v>
       </c>
@@ -18389,7 +18382,7 @@
         <v>721</v>
       </c>
       <c r="D340" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>584</v>
@@ -18423,7 +18416,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>670</v>
       </c>
@@ -18434,7 +18427,7 @@
         <v>721</v>
       </c>
       <c r="D341" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>585</v>
@@ -18468,7 +18461,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>671</v>
       </c>
@@ -18479,7 +18472,7 @@
         <v>682</v>
       </c>
       <c r="D342" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>586</v>
@@ -18513,7 +18506,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>670</v>
       </c>
@@ -18524,7 +18517,7 @@
         <v>703</v>
       </c>
       <c r="D343" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>587</v>
@@ -18558,7 +18551,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>627</v>
       </c>
@@ -18569,7 +18562,7 @@
         <v>728</v>
       </c>
       <c r="D344" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>588</v>
@@ -18603,7 +18596,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>670</v>
       </c>
@@ -18614,7 +18607,7 @@
         <v>703</v>
       </c>
       <c r="D345" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>590</v>
@@ -18648,7 +18641,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>670</v>
       </c>
@@ -18659,7 +18652,7 @@
         <v>682</v>
       </c>
       <c r="D346" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>591</v>
@@ -18693,7 +18686,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>671</v>
       </c>
@@ -18704,7 +18697,7 @@
         <v>726</v>
       </c>
       <c r="D347" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>593</v>
@@ -18738,7 +18731,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>670</v>
       </c>
@@ -18749,7 +18742,7 @@
         <v>703</v>
       </c>
       <c r="D348" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>594</v>
@@ -18783,7 +18776,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>670</v>
       </c>
@@ -18794,7 +18787,7 @@
         <v>715</v>
       </c>
       <c r="D349" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>595</v>
@@ -18828,7 +18821,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>670</v>
       </c>
@@ -18839,7 +18832,7 @@
         <v>682</v>
       </c>
       <c r="D350" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>596</v>
@@ -18873,7 +18866,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>670</v>
       </c>
@@ -18884,7 +18877,7 @@
         <v>715</v>
       </c>
       <c r="D351" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>597</v>
@@ -18918,7 +18911,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>670</v>
       </c>
@@ -18929,7 +18922,7 @@
         <v>721</v>
       </c>
       <c r="D352" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>598</v>
@@ -18963,7 +18956,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>670</v>
       </c>
@@ -18974,7 +18967,7 @@
         <v>703</v>
       </c>
       <c r="D353" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>599</v>
@@ -19008,7 +19001,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>670</v>
       </c>
@@ -19019,7 +19012,7 @@
         <v>721</v>
       </c>
       <c r="D354" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>600</v>
@@ -19053,7 +19046,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>670</v>
       </c>
@@ -19064,7 +19057,7 @@
         <v>703</v>
       </c>
       <c r="D355" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>601</v>
@@ -19098,7 +19091,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>670</v>
       </c>
@@ -19109,7 +19102,7 @@
         <v>721</v>
       </c>
       <c r="D356" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>603</v>
@@ -19143,7 +19136,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>627</v>
       </c>
@@ -19154,7 +19147,7 @@
         <v>686</v>
       </c>
       <c r="D357" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>604</v>
@@ -19188,7 +19181,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>670</v>
       </c>
@@ -19199,7 +19192,7 @@
         <v>682</v>
       </c>
       <c r="D358" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>605</v>
@@ -19233,7 +19226,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>670</v>
       </c>
@@ -19244,7 +19237,7 @@
         <v>682</v>
       </c>
       <c r="D359" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>606</v>
@@ -19278,7 +19271,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>670</v>
       </c>
@@ -19289,7 +19282,7 @@
         <v>721</v>
       </c>
       <c r="D360" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>608</v>
@@ -19323,7 +19316,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>670</v>
       </c>
@@ -19334,7 +19327,7 @@
         <v>703</v>
       </c>
       <c r="D361" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>609</v>
@@ -19368,7 +19361,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>670</v>
       </c>
@@ -19379,7 +19372,7 @@
         <v>682</v>
       </c>
       <c r="D362" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>610</v>
@@ -19413,7 +19406,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>670</v>
       </c>
@@ -19424,7 +19417,7 @@
         <v>703</v>
       </c>
       <c r="D363" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>611</v>
@@ -19458,7 +19451,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>670</v>
       </c>
@@ -19469,7 +19462,7 @@
         <v>721</v>
       </c>
       <c r="D364" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>612</v>
@@ -19503,7 +19496,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>670</v>
       </c>
@@ -19514,7 +19507,7 @@
         <v>715</v>
       </c>
       <c r="D365" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>614</v>
@@ -19548,7 +19541,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>670</v>
       </c>
@@ -19559,7 +19552,7 @@
         <v>721</v>
       </c>
       <c r="D366" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>615</v>
@@ -19593,7 +19586,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>670</v>
       </c>
@@ -19604,7 +19597,7 @@
         <v>715</v>
       </c>
       <c r="D367" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>616</v>
@@ -19638,7 +19631,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>671</v>
       </c>
@@ -19649,7 +19642,7 @@
         <v>731</v>
       </c>
       <c r="D368" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>617</v>
@@ -19683,7 +19676,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>670</v>
       </c>
@@ -19694,7 +19687,7 @@
         <v>721</v>
       </c>
       <c r="D369" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>618</v>
@@ -19728,7 +19721,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>670</v>
       </c>
@@ -19739,7 +19732,7 @@
         <v>721</v>
       </c>
       <c r="D370" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>619</v>
@@ -19773,7 +19766,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>670</v>
       </c>
@@ -19784,7 +19777,7 @@
         <v>721</v>
       </c>
       <c r="D371" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>620</v>
@@ -19818,7 +19811,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>670</v>
       </c>
@@ -19829,7 +19822,7 @@
         <v>715</v>
       </c>
       <c r="D372" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>621</v>
@@ -19863,7 +19856,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>670</v>
       </c>
@@ -19874,7 +19867,7 @@
         <v>682</v>
       </c>
       <c r="D373" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>622</v>
